--- a/Instacar_Report.xlsx
+++ b/Instacar_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ceciliamoura/Desktop/Career Foundry/Achievement4/Instacart Basket Analysis/Sent to client/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBDA0D4-64C8-E74F-94B5-E4576AE1D69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899DF3C0-C9B8-854D-B8B3-3EE465472D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="-25360" windowWidth="31140" windowHeight="21540" tabRatio="808" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="3780" windowWidth="29400" windowHeight="18360" tabRatio="808" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Title Page" sheetId="1" r:id="rId1"/>
@@ -454,16 +454,10 @@
     <t>Busiest days are '0' and '1', Saturday and Sunday; Slowest days are '4' and '3', Wednesday and Tuesday</t>
   </si>
   <si>
-    <t>Most orders occur between 9am and 5pm</t>
-  </si>
-  <si>
     <t>Slowest hours are from 12am to 6am</t>
   </si>
   <si>
     <t>Order cost varied from around $72 to $88, with maximum values during days '0' ( Saturday) and '6' (Friday)</t>
-  </si>
-  <si>
-    <t>More expensive orders peaked between 7pm and 11pm. Least expensive orders were more common at 6pm</t>
   </si>
   <si>
     <t>high-range product' for ‘prices’ &gt;15 / ‘mid-range product' for ‘prices’ &gt;5 &amp; &lt;=15 / ‘low-range product' for ‘prices’ &lt;=5</t>
@@ -595,9 +589,6 @@
     <t>Customers data, as well as the “prices” column in the Products data set, were both fabricated by Career Foundry for the purpose of this course</t>
   </si>
   <si>
-    <t>“The Instacart Online Grocery Shopping Dataset 2017”, Accessed from www.instacart.com/datasets/grocery-shopping-2017 via Kaggle.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -631,12 +622,21 @@
       <t xml:space="preserve"> For customers who frequently shop in the evening, offering discounts or rewards between 7 PM and 11 PM can further stimulate spending. To tailor marketing efforts effectively, segment customers based on their income level and product preferences. For instance, exclusive deals on mid-range products can be offered to low-income customers.</t>
     </r>
   </si>
+  <si>
+    <t>“The Instacart Online Grocery Shopping Dataset 2017”, Accessed  here https://www.kaggle.com/c/instacart-market-basket-analysis/data.</t>
+  </si>
+  <si>
+    <t>More expensive orders peaked between 9pm and 11pm. Least expensive orders were more common at 6pm</t>
+  </si>
+  <si>
+    <t>Most orders occur between 8am and 8pm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,24 +652,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Adobe Fan Heiti Std B"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="2" tint="-0.499984740745262"/>
-      <name val="Adobe Fan Heiti Std B"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="12"/>
-      <color theme="2" tint="-0.499984740745262"/>
       <name val="Adobe Fan Heiti Std B"/>
       <family val="2"/>
       <charset val="128"/>
@@ -788,8 +779,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -859,12 +881,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1419,110 +1435,106 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1533,155 +1545,65 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="51">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1704,6 +1626,40 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1785,7 +1741,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1794,21 +1750,20 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <name val="Var(--jp-code-font-family)"/>
-        <scheme val="none"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
         <right style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </right>
@@ -1818,8 +1773,6 @@
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1860,6 +1813,42 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -1871,31 +1860,26 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="13"/>
         <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <name val="Var(--jp-code-font-family)"/>
+        <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1940,7 +1924,22 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2053,6 +2052,36 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="double">
+          <color auto="1"/>
+        </top>
+        <bottom style="double">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="double">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -2081,23 +2110,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="double">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="double">
-          <color auto="1"/>
-        </top>
-        <bottom style="double">
-          <color auto="1"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -14832,25 +14844,25 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1600">
+            <a:rPr lang="en-US" sz="2000">
               <a:solidFill>
                 <a:schemeClr val="bg2">
                   <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Adobe Fan Heiti Std B" panose="020B0700000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="+mj-lt"/>
               <a:ea typeface="Adobe Fan Heiti Std B" panose="020B0700000000000000" pitchFamily="34" charset="-128"/>
             </a:rPr>
             <a:t>Project Name:</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1600" baseline="0">
+            <a:rPr lang="en-US" sz="2000" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="bg2">
                   <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Adobe Fan Heiti Std B" panose="020B0700000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="+mj-lt"/>
               <a:ea typeface="Adobe Fan Heiti Std B" panose="020B0700000000000000" pitchFamily="34" charset="-128"/>
             </a:rPr>
             <a:t> Instacart Analysis</a:t>
@@ -14858,13 +14870,13 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1600" baseline="0">
+            <a:rPr lang="en-US" sz="2000" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="bg2">
                   <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Adobe Fan Heiti Std B" panose="020B0700000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="+mj-lt"/>
               <a:ea typeface="Adobe Fan Heiti Std B" panose="020B0700000000000000" pitchFamily="34" charset="-128"/>
             </a:rPr>
             <a:t>Date: 09/12/2024</a:t>
@@ -14872,13 +14884,13 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1600" baseline="0">
+            <a:rPr lang="en-US" sz="2000" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="bg2">
                   <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Adobe Fan Heiti Std B" panose="020B0700000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="+mj-lt"/>
               <a:ea typeface="Adobe Fan Heiti Std B" panose="020B0700000000000000" pitchFamily="34" charset="-128"/>
             </a:rPr>
             <a:t>Analyst Name: Cecilia Moura</a:t>
@@ -15008,7 +15020,7 @@
                   <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Adobe Fan Heiti Std B" panose="020B0700000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
               <a:ea typeface="Adobe Fan Heiti Std B" panose="020B0700000000000000" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Adobe Arabic" panose="02040503050201020203" pitchFamily="18" charset="-78"/>
             </a:rPr>
@@ -19996,13 +20008,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>1370533</xdr:colOff>
       <xdr:row>427</xdr:row>
-      <xdr:rowOff>131560</xdr:rowOff>
+      <xdr:rowOff>131558</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
+      <xdr:colOff>487858</xdr:colOff>
       <xdr:row>437</xdr:row>
-      <xdr:rowOff>81280</xdr:rowOff>
+      <xdr:rowOff>88908</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -20017,10 +20029,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6336233" y="87621860"/>
-          <a:ext cx="2574087" cy="1854720"/>
+          <a:off x="6336233" y="87621858"/>
+          <a:ext cx="2635225" cy="1862350"/>
           <a:chOff x="6135572" y="86847680"/>
-          <a:chExt cx="2688387" cy="1899920"/>
+          <a:chExt cx="2752240" cy="1907736"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
@@ -20045,7 +20057,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="6135572" y="86847680"/>
-            <a:ext cx="2688387" cy="1899920"/>
+            <a:ext cx="2752240" cy="1907736"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -20107,15 +20119,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>858994</xdr:colOff>
+      <xdr:colOff>858996</xdr:colOff>
       <xdr:row>427</xdr:row>
-      <xdr:rowOff>143187</xdr:rowOff>
+      <xdr:rowOff>143196</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:colOff>330201</xdr:colOff>
       <xdr:row>437</xdr:row>
-      <xdr:rowOff>86360</xdr:rowOff>
+      <xdr:rowOff>107921</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -20130,10 +20142,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9342594" y="87633487"/>
-          <a:ext cx="2321086" cy="1848173"/>
+          <a:off x="9342596" y="87633496"/>
+          <a:ext cx="2468405" cy="1869725"/>
           <a:chOff x="9027634" y="86879107"/>
-          <a:chExt cx="2473486" cy="1873573"/>
+          <a:chExt cx="2630477" cy="1895421"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
@@ -20158,7 +20170,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="9027634" y="86879107"/>
-            <a:ext cx="2473486" cy="1873573"/>
+            <a:ext cx="2630477" cy="1895421"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -20489,6 +20501,130 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>443</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>465</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="Group 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96945F01-917D-A4BB-D7A7-567431D0A6C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="596900" y="90601800"/>
+          <a:ext cx="5740400" cy="4305300"/>
+          <a:chOff x="596900" y="90601800"/>
+          <a:chExt cx="5740400" cy="4305300"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Picture 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C58DD5DA-A20E-33FB-95C4-E6FF7F7D469F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="596900" y="90601800"/>
+            <a:ext cx="5740400" cy="4305300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="TextBox 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BC6A05C-F102-5ECA-02E7-C1EA58E47574}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1562100" y="90652600"/>
+            <a:ext cx="3759200" cy="355600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Relationship</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+              <a:t> between customers income and age </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -20677,10 +20813,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA01D3EF-3D97-474B-A785-EDF054ED4380}" name="Table1" displayName="Table1" ref="B24:C28" totalsRowShown="0" headerRowDxfId="46" dataDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA01D3EF-3D97-474B-A785-EDF054ED4380}" name="Table1" displayName="Table1" ref="B24:C28" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
   <autoFilter ref="B24:C28" xr:uid="{DA01D3EF-3D97-474B-A785-EDF054ED4380}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0ED447A5-C43C-FC4A-B5DF-0712C21CA30F}" name="Age Group" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{0ED447A5-C43C-FC4A-B5DF-0712C21CA30F}" name="Age Group" dataDxfId="46"/>
     <tableColumn id="2" xr3:uid="{A85A573C-44A2-DD4D-99B9-12956619EA23}" name="Count" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -20688,12 +20824,12 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{FE83B0A5-4B37-BA43-BDCD-044E10A8E9F7}" name="Table22" displayName="Table22" ref="B156:E167" headerRowCount="0" totalsRowShown="0" dataDxfId="3" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{FE83B0A5-4B37-BA43-BDCD-044E10A8E9F7}" name="Table22" displayName="Table22" ref="B156:E167" headerRowCount="0" totalsRowShown="0" dataDxfId="8" tableBorderDxfId="7">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C210A4C8-1EB4-F049-B4BD-2A1A58582902}" name="Top 10 selling products " headerRowDxfId="0" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{878ADF61-62AC-324E-BA89-8A579F96F183}" name="Top 10 selling products 2" headerRowDxfId="1" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{0A77F757-6FF6-7A4F-87CC-146637561AC3}" name="Column2" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{80ABC71C-C3EC-AC43-A056-6675D3A25018}" name="Column3" headerRowDxfId="2" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{C210A4C8-1EB4-F049-B4BD-2A1A58582902}" name="Top 10 selling products " headerRowDxfId="6" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{878ADF61-62AC-324E-BA89-8A579F96F183}" name="Top 10 selling products 2" headerRowDxfId="4" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{0A77F757-6FF6-7A4F-87CC-146637561AC3}" name="Column2" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{80ABC71C-C3EC-AC43-A056-6675D3A25018}" name="Column3" headerRowDxfId="1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -20766,24 +20902,24 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{8CE92D4D-43D7-1E41-9A6D-86A7F11FDFE1}" name="Table8" displayName="Table8" ref="B6:E21" totalsRowShown="0" headerRowDxfId="18" dataDxfId="13" headerRowBorderDxfId="19" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{8CE92D4D-43D7-1E41-9A6D-86A7F11FDFE1}" name="Table8" displayName="Table8" ref="B6:E21" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17">
   <autoFilter ref="B6:E21" xr:uid="{8CE92D4D-43D7-1E41-9A6D-86A7F11FDFE1}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{AEEB411C-05FE-5B4F-A478-42542D84AD71}" name="Dataset" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{2595080A-DE78-2649-8965-B40CD31BE5EB}" name="New column " dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{EC153732-D8A6-F64D-B0C6-8CA76A01DB4C}" name="Column/s it was derived from " dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{459F23CC-6D3A-3840-93FD-3D7107CB7878}" name="Conditions" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{AEEB411C-05FE-5B4F-A478-42542D84AD71}" name="Dataset" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{2595080A-DE78-2649-8965-B40CD31BE5EB}" name="New column " dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{EC153732-D8A6-F64D-B0C6-8CA76A01DB4C}" name="Column/s it was derived from " dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{459F23CC-6D3A-3840-93FD-3D7107CB7878}" name="Conditions" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{491F4595-80DE-9645-A155-030FBD4F0DE2}" name="Table1113" displayName="Table1113" ref="B132:C137" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{491F4595-80DE-9645-A155-030FBD4F0DE2}" name="Table1113" displayName="Table1113" ref="B132:C137" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="B132:C137" xr:uid="{491F4595-80DE-9645-A155-030FBD4F0DE2}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{05205691-CCF5-8F4B-8A7D-2ACCA6097B03}" name="department name" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{E690D1CD-80F8-214A-BF0E-1C92E0078698}" name="department revenue" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{05205691-CCF5-8F4B-8A7D-2ACCA6097B03}" name="department name" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{E690D1CD-80F8-214A-BF0E-1C92E0078698}" name="department revenue" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -21055,7 +21191,7 @@
   <dimension ref="B13:N24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -21064,105 +21200,105 @@
   </cols>
   <sheetData>
     <row r="13" spans="2:2" ht="16">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="95" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="96" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="96" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="96" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="96" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="96" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="96" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="16">
-      <c r="B21" s="84" t="s">
-        <v>184</v>
-      </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
+      <c r="B21" s="97" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
     </row>
     <row r="22" spans="2:14" ht="16">
-      <c r="B22" s="85" t="s">
+      <c r="B22" s="98" t="s">
         <v>186</v>
       </c>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
     </row>
     <row r="23" spans="2:14">
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
     </row>
-    <row r="24" spans="2:14" ht="16">
-      <c r="B24" s="85" t="s">
-        <v>185</v>
-      </c>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="74"/>
+    <row r="24" spans="2:14">
+      <c r="B24" s="98" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -21183,9 +21319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="P1:Z29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:O31"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
   <cols>
@@ -21198,34 +21332,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="25:25" ht="17">
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="25:25" ht="17">
-      <c r="Y2" s="4"/>
+      <c r="Y2" s="2"/>
     </row>
     <row r="6" spans="25:25" ht="8.5" customHeight="1"/>
     <row r="27" spans="16:26" ht="16">
-      <c r="Z27" s="12"/>
+      <c r="Z27" s="10"/>
     </row>
     <row r="28" spans="16:26" ht="16">
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
     </row>
     <row r="29" spans="16:26" ht="16">
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -21242,7 +21376,7 @@
   <dimension ref="B1:O41"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -21255,731 +21389,731 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15">
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="17" thickBot="1">
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
     </row>
     <row r="6" spans="2:15" ht="24.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
     </row>
     <row r="7" spans="2:15" ht="17" thickTop="1">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51" t="s">
+      <c r="D7" s="46"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
     </row>
     <row r="8" spans="2:15" ht="16">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="53"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
     </row>
     <row r="9" spans="2:15" ht="16">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="25" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
     </row>
     <row r="10" spans="2:15" ht="16">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="25" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
     </row>
     <row r="11" spans="2:15" ht="16">
-      <c r="B11" s="27"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
     </row>
     <row r="12" spans="2:15" ht="16">
-      <c r="B12" s="27"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
     </row>
     <row r="13" spans="2:15" ht="16">
-      <c r="B13" s="27"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
     </row>
     <row r="14" spans="2:15" ht="16">
-      <c r="B14" s="27"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
     </row>
     <row r="15" spans="2:15" ht="16">
-      <c r="B15" s="27"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
     </row>
     <row r="16" spans="2:15" ht="16">
-      <c r="B16" s="27"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
     </row>
     <row r="17" spans="2:15" ht="16">
-      <c r="B17" s="27"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
     </row>
     <row r="18" spans="2:15" ht="16">
-      <c r="B18" s="27"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
     </row>
     <row r="19" spans="2:15" ht="16">
-      <c r="B19" s="27"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
     </row>
     <row r="20" spans="2:15" ht="17" thickBot="1">
-      <c r="B20" s="54"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
     </row>
     <row r="21" spans="2:15" ht="17" thickTop="1">
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
     </row>
     <row r="22" spans="2:15" ht="16">
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
     </row>
     <row r="23" spans="2:15" ht="16">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
     </row>
     <row r="24" spans="2:15" ht="16">
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="58" t="s">
+      <c r="D24" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58" t="s">
+      <c r="E24" s="55"/>
+      <c r="F24" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="58" t="s">
+      <c r="G24" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
     </row>
     <row r="25" spans="2:15" ht="16">
-      <c r="B25" s="59">
+      <c r="B25" s="56">
         <v>462</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="59">
+      <c r="D25" s="56">
         <v>70</v>
       </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59">
+      <c r="E25" s="56"/>
+      <c r="F25" s="56">
         <v>11</v>
       </c>
-      <c r="G25" s="59">
+      <c r="G25" s="56">
         <v>4.8</v>
       </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
     </row>
     <row r="26" spans="2:15" ht="16">
-      <c r="B26" s="59">
+      <c r="B26" s="56">
         <v>18458</v>
       </c>
-      <c r="C26" s="59" t="s">
+      <c r="C26" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="59">
+      <c r="D26" s="56">
         <v>27</v>
       </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59">
+      <c r="E26" s="56"/>
+      <c r="F26" s="56">
         <v>5</v>
       </c>
-      <c r="G26" s="59">
+      <c r="G26" s="56">
         <v>9.1999999999999993</v>
       </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
     </row>
     <row r="27" spans="2:15" ht="16">
-      <c r="B27" s="59">
+      <c r="B27" s="56">
         <v>26808</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="59">
+      <c r="D27" s="56">
         <v>27</v>
       </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59">
+      <c r="E27" s="56"/>
+      <c r="F27" s="56">
         <v>5</v>
       </c>
-      <c r="G27" s="59">
+      <c r="G27" s="56">
         <v>13.4</v>
       </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
     </row>
     <row r="28" spans="2:15" ht="16">
-      <c r="B28" s="59">
+      <c r="B28" s="56">
         <v>35306</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="59">
+      <c r="D28" s="56">
         <v>121</v>
       </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59">
+      <c r="E28" s="56"/>
+      <c r="F28" s="56">
         <v>14</v>
       </c>
-      <c r="G28" s="59">
+      <c r="G28" s="56">
         <v>6.8</v>
       </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
     </row>
     <row r="29" spans="2:15" ht="16">
-      <c r="B29" s="59">
+      <c r="B29" s="56">
         <v>35491</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="59">
+      <c r="D29" s="56">
         <v>127</v>
       </c>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59">
+      <c r="E29" s="56"/>
+      <c r="F29" s="56">
         <v>11</v>
       </c>
-      <c r="G29" s="59">
+      <c r="G29" s="56">
         <v>9.9</v>
       </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
     </row>
     <row r="30" spans="2:15" ht="16">
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
     </row>
     <row r="31" spans="2:15" ht="16">
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
     </row>
     <row r="32" spans="2:15" ht="16">
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
     </row>
     <row r="33" spans="2:15" ht="16">
-      <c r="B33" s="60" t="s">
+      <c r="B33" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="61" t="s">
+      <c r="D33" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61" t="s">
+      <c r="E33" s="58"/>
+      <c r="F33" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="61" t="s">
+      <c r="G33" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
     </row>
     <row r="34" spans="2:15" ht="16">
-      <c r="B34" s="62">
+      <c r="B34" s="59">
         <v>21553</v>
       </c>
-      <c r="C34" s="63" t="s">
+      <c r="C34" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="63">
+      <c r="D34" s="60">
         <v>108</v>
       </c>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63">
+      <c r="E34" s="60"/>
+      <c r="F34" s="60">
         <v>16</v>
       </c>
-      <c r="G34" s="63">
+      <c r="G34" s="60">
         <v>14900</v>
       </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
     </row>
     <row r="35" spans="2:15" ht="16">
-      <c r="B35" s="62">
+      <c r="B35" s="59">
         <v>33664</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="C35" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="63">
+      <c r="D35" s="60">
         <v>84</v>
       </c>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63">
+      <c r="E35" s="60"/>
+      <c r="F35" s="60">
         <v>16</v>
       </c>
-      <c r="G35" s="63">
+      <c r="G35" s="60">
         <v>99999</v>
       </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
     </row>
     <row r="36" spans="2:15" ht="16">
-      <c r="B36" s="64"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
     </row>
     <row r="37" spans="2:15" ht="16">
-      <c r="B37" s="64"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
     </row>
     <row r="38" spans="2:15" ht="16">
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
     </row>
     <row r="39" spans="2:15" ht="16">
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
     </row>
     <row r="40" spans="2:15" ht="16">
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
     </row>
     <row r="41" spans="2:15" ht="16">
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -21994,9 +22128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -22008,557 +22140,557 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="17" thickBot="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" ht="23" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="33" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" ht="17" thickTop="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="36" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="16">
-      <c r="A10" s="11"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="41" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="16">
-      <c r="A11" s="11"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" ht="16">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" ht="16">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" ht="17" thickBot="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="33" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" ht="17" thickTop="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" ht="16">
-      <c r="A17" s="11"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="42" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" ht="16">
-      <c r="A18" s="11"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="42" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" ht="16">
-      <c r="A19" s="11"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" ht="16">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" ht="17" thickBot="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="33" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="E22" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8" ht="17" thickTop="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8" ht="16">
-      <c r="A24" s="11"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="42" t="s">
+      <c r="A24" s="9"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="43" t="s">
+      <c r="E24" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8" ht="16">
-      <c r="A25" s="11"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" ht="16">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8" ht="17" thickBot="1">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11" t="s">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A28" s="11"/>
-      <c r="B28" s="33" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8" ht="17" thickTop="1">
-      <c r="A29" s="11"/>
-      <c r="B29" s="36" t="s">
+      <c r="A29" s="9"/>
+      <c r="B29" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38" t="s">
+      <c r="C29" s="35"/>
+      <c r="D29" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="46" t="s">
+      <c r="E29" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" ht="16">
-      <c r="A30" s="11"/>
-      <c r="B30" s="40" t="s">
+      <c r="A30" s="9"/>
+      <c r="B30" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="43" t="s">
+      <c r="C30" s="42"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" spans="1:8" ht="16">
-      <c r="A31" s="11"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:8" ht="16">
-      <c r="A32" s="11"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:8" ht="16">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:8" ht="17" thickBot="1">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11" t="s">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
     </row>
     <row r="35" spans="1:8" ht="23" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A35" s="11"/>
-      <c r="B35" s="33" t="s">
+      <c r="A35" s="9"/>
+      <c r="B35" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="35" t="s">
+      <c r="E35" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
     </row>
     <row r="36" spans="1:8" ht="17" thickTop="1">
-      <c r="A36" s="11"/>
-      <c r="B36" s="36" t="s">
+      <c r="A36" s="9"/>
+      <c r="B36" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="38" t="s">
+      <c r="C36" s="34"/>
+      <c r="D36" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="39" t="s">
+      <c r="E36" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:8" ht="16">
-      <c r="A37" s="11"/>
-      <c r="B37" s="40" t="s">
+      <c r="A37" s="9"/>
+      <c r="B37" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="42" t="s">
+      <c r="C37" s="38"/>
+      <c r="D37" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="43" t="s">
+      <c r="E37" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8" ht="16">
-      <c r="A38" s="11"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="42" t="s">
+      <c r="A38" s="9"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="43" t="s">
+      <c r="E38" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
     </row>
     <row r="39" spans="1:8" ht="16">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
     </row>
     <row r="40" spans="1:8" ht="17" thickBot="1">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11" t="s">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
     </row>
     <row r="41" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A41" s="11"/>
-      <c r="B41" s="33" t="s">
+      <c r="A41" s="9"/>
+      <c r="B41" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="34" t="s">
+      <c r="D41" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="35" t="s">
+      <c r="E41" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:8" ht="17" thickTop="1">
-      <c r="A42" s="11"/>
-      <c r="B42" s="36" t="s">
+      <c r="A42" s="9"/>
+      <c r="B42" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="C42" s="37"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="39" t="s">
+      <c r="C42" s="34"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
     </row>
     <row r="43" spans="1:8" ht="16">
-      <c r="A43" s="11"/>
-      <c r="B43" s="40" t="s">
+      <c r="A43" s="9"/>
+      <c r="B43" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="C43" s="41"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="39" t="s">
+      <c r="C43" s="38"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
     </row>
     <row r="44" spans="1:8" ht="16">
-      <c r="A44" s="11"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
     </row>
     <row r="45" spans="1:8" ht="16">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
     </row>
     <row r="46" spans="1:8" ht="16">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
     </row>
     <row r="47" spans="1:8" ht="16">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -22574,9 +22706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:K60"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -22588,428 +22718,428 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:11" s="15" customFormat="1" ht="21.5" customHeight="1" thickBot="1">
-      <c r="B6" s="16" t="s">
+    <row r="6" spans="2:11" ht="21.5" customHeight="1" thickBot="1">
+      <c r="B6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="17" thickTop="1">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="19" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="16">
-      <c r="B8" s="23"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="22" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="16">
-      <c r="B9" s="19"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="34">
-      <c r="B10" s="23"/>
-      <c r="C10" s="24" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="E10" s="72" t="s">
-        <v>157</v>
+      <c r="E10" s="68" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="16">
-      <c r="B11" s="23"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="22" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="16">
-      <c r="B12" s="23"/>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="22" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="16">
-      <c r="B13" s="23"/>
-      <c r="C13" s="24" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="16">
-      <c r="B14" s="23"/>
-      <c r="C14" s="24" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="9" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="34">
-      <c r="B15" s="23"/>
-      <c r="C15" s="24" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="17" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="34">
-      <c r="B16" s="23"/>
-      <c r="C16" s="24" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="26" t="s">
+      <c r="D16" s="21"/>
+      <c r="E16" s="23" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="17">
-      <c r="B17" s="27"/>
-      <c r="C17" s="24" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="17" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="16">
-      <c r="B18" s="27"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="25"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" spans="2:5" ht="16">
-      <c r="B19" s="27"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="25"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" spans="2:5" ht="16">
-      <c r="B20" s="27"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="25"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="22"/>
     </row>
     <row r="21" spans="2:5" ht="16">
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="29"/>
     </row>
     <row r="24" spans="2:5" ht="17">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="17">
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="11">
         <v>12084951</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="17">
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="11">
         <v>9204241</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="17">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="11">
         <v>7730544</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="17">
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="11">
         <v>1943782</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="17">
-      <c r="B29" s="13"/>
+      <c r="B29" s="11"/>
     </row>
     <row r="30" spans="2:5" ht="17">
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="17">
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="11">
         <v>76864</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="17">
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="11">
         <v>68750</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="17">
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="11">
         <v>17017</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="17">
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="17">
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="11">
         <v>48271</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="17">
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="11">
         <v>38403</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="17">
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="11">
         <v>38109</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="17">
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="11">
         <v>37848</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="17">
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="17">
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="11">
         <v>10329953</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="17">
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="11">
         <v>9544666</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="17">
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="11">
         <v>6519996</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="17">
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="11">
         <v>4568903</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="17">
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="17">
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="11">
         <v>20891240</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="17">
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="11">
         <v>9674325</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="17">
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50" s="11">
         <v>397953</v>
       </c>
     </row>
     <row r="52" spans="2:3" ht="17">
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="17">
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C53" s="13">
+      <c r="C53" s="11">
         <v>1021379</v>
       </c>
     </row>
     <row r="54" spans="2:3" ht="17">
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="13">
+      <c r="C54" s="11">
         <v>783505</v>
       </c>
     </row>
     <row r="55" spans="2:3" ht="17">
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C55" s="13">
+      <c r="C55" s="11">
         <v>719292</v>
       </c>
     </row>
     <row r="56" spans="2:3" ht="17">
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C56" s="13">
+      <c r="C56" s="11">
         <v>540199</v>
       </c>
     </row>
     <row r="58" spans="2:3" ht="17">
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="59" spans="2:3" ht="17">
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C59" s="13">
+      <c r="C59" s="11">
         <v>16537776</v>
       </c>
     </row>
     <row r="60" spans="2:3" ht="17">
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C60" s="13">
+      <c r="C60" s="11">
         <v>14425742</v>
       </c>
     </row>
@@ -23036,8 +23166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:Q417"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B414" sqref="B414"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -23052,63 +23182,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17">
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:17">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="2:17">
-      <c r="B13" s="66"/>
-    </row>
-    <row r="14" spans="2:17">
-      <c r="B14" s="66"/>
-    </row>
-    <row r="15" spans="2:17">
-      <c r="B15" s="66"/>
-    </row>
-    <row r="16" spans="2:17">
-      <c r="B16" s="66"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="66"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="66"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="66"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="66"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="66"/>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="66"/>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="66"/>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="66"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="100" t="s">
+      <c r="B25" s="94" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:2" s="88" customFormat="1">
-      <c r="B27" s="87">
+    <row r="27" spans="2:2" s="83" customFormat="1">
+      <c r="B27" s="82">
         <v>1</v>
       </c>
     </row>
@@ -23119,409 +23213,405 @@
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>139</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="67"/>
+      <c r="B55" s="63"/>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="67"/>
+      <c r="B56" s="63"/>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="67"/>
+      <c r="B57" s="63"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="67"/>
+      <c r="B58" s="63"/>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="100" t="s">
+      <c r="B59" s="94" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="2:2" s="88" customFormat="1">
-      <c r="B61" s="87">
+    <row r="61" spans="2:2" s="83" customFormat="1">
+      <c r="B61" s="82">
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="100" t="s">
+      <c r="B93" s="94" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="2:2" s="88" customFormat="1">
-      <c r="B95" s="87">
+    <row r="95" spans="2:2" s="83" customFormat="1">
+      <c r="B95" s="82">
         <v>3</v>
       </c>
     </row>
     <row r="96" spans="2:2" ht="32">
-      <c r="B96" s="94" t="s">
-        <v>143</v>
+      <c r="B96" s="89" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="126" spans="2:2">
-      <c r="B126" s="100" t="s">
+      <c r="B126" s="94" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="127" spans="2:2">
-      <c r="B127" s="6" t="s">
+      <c r="B127" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="128" spans="2:2" s="88" customFormat="1">
-      <c r="B128" s="87">
+    <row r="128" spans="2:2" s="83" customFormat="1">
+      <c r="B128" s="82">
         <v>4</v>
       </c>
     </row>
     <row r="129" spans="2:10" ht="32">
-      <c r="B129" s="97" t="s">
-        <v>149</v>
+      <c r="B129" s="91" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="130" spans="2:10">
-      <c r="G130" s="73"/>
-      <c r="H130" s="73"/>
+      <c r="G130" s="69"/>
+      <c r="H130" s="69"/>
     </row>
     <row r="132" spans="2:10">
-      <c r="B132" s="75" t="s">
-        <v>164</v>
-      </c>
-      <c r="C132" s="75" t="s">
-        <v>163</v>
+      <c r="B132" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="C132" s="71" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="133" spans="2:10">
-      <c r="B133" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C133" s="15">
+      <c r="B133" t="s">
+        <v>143</v>
+      </c>
+      <c r="C133">
         <v>72455761.700000003</v>
       </c>
     </row>
     <row r="134" spans="2:10">
-      <c r="B134" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C134" s="15">
+      <c r="B134" t="s">
+        <v>144</v>
+      </c>
+      <c r="C134">
         <v>43116767.200000003</v>
       </c>
     </row>
     <row r="135" spans="2:10">
-      <c r="B135" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C135" s="15">
+      <c r="B135" t="s">
+        <v>145</v>
+      </c>
+      <c r="C135">
         <v>19758722.699999999</v>
       </c>
     </row>
     <row r="136" spans="2:10">
-      <c r="B136" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C136" s="15">
+      <c r="B136" t="s">
+        <v>146</v>
+      </c>
+      <c r="C136">
         <v>16408884</v>
       </c>
     </row>
     <row r="137" spans="2:10">
-      <c r="B137" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C137" s="15">
+      <c r="B137" t="s">
+        <v>160</v>
+      </c>
+      <c r="C137">
         <v>14287456.5</v>
       </c>
-    </row>
-    <row r="138" spans="2:10">
-      <c r="B138" s="15"/>
-      <c r="C138" s="15"/>
     </row>
     <row r="140" spans="2:10">
-      <c r="D140" s="75"/>
-      <c r="J140" s="75"/>
+      <c r="D140" s="71"/>
+      <c r="J140" s="71"/>
     </row>
     <row r="141" spans="2:10" ht="17">
-      <c r="D141" s="13"/>
-      <c r="J141" s="13"/>
+      <c r="D141" s="11"/>
+      <c r="J141" s="11"/>
     </row>
     <row r="142" spans="2:10" ht="17">
-      <c r="D142" s="13"/>
-      <c r="J142" s="13"/>
+      <c r="D142" s="11"/>
+      <c r="J142" s="11"/>
     </row>
     <row r="143" spans="2:10" ht="17">
-      <c r="D143" s="13"/>
-      <c r="J143" s="13"/>
+      <c r="D143" s="11"/>
+      <c r="J143" s="11"/>
     </row>
     <row r="144" spans="2:10" ht="16" customHeight="1">
-      <c r="D144" s="13"/>
-      <c r="J144" s="13"/>
+      <c r="D144" s="11"/>
+      <c r="J144" s="11"/>
     </row>
     <row r="145" spans="2:10" ht="16" customHeight="1">
-      <c r="D145" s="13"/>
-      <c r="J145" s="13"/>
+      <c r="D145" s="11"/>
+      <c r="J145" s="11"/>
     </row>
     <row r="146" spans="2:10" ht="17">
-      <c r="D146" s="13"/>
-      <c r="J146" s="13"/>
+      <c r="D146" s="11"/>
+      <c r="J146" s="11"/>
     </row>
     <row r="147" spans="2:10" ht="17">
-      <c r="D147" s="13"/>
-      <c r="J147" s="13"/>
+      <c r="D147" s="11"/>
+      <c r="J147" s="11"/>
     </row>
     <row r="148" spans="2:10" ht="17" customHeight="1">
-      <c r="D148" s="13"/>
-      <c r="J148" s="13"/>
+      <c r="D148" s="11"/>
+      <c r="J148" s="11"/>
     </row>
     <row r="149" spans="2:10" ht="17">
-      <c r="D149" s="13"/>
-      <c r="J149" s="13"/>
+      <c r="D149" s="11"/>
+      <c r="J149" s="11"/>
     </row>
     <row r="150" spans="2:10" ht="17">
-      <c r="D150" s="13"/>
-      <c r="J150" s="13"/>
+      <c r="D150" s="11"/>
+      <c r="J150" s="11"/>
     </row>
     <row r="155" spans="2:10" ht="16" customHeight="1">
-      <c r="B155" s="69"/>
+      <c r="B155" s="65"/>
     </row>
-    <row r="156" spans="2:10" s="69" customFormat="1" ht="17">
-      <c r="B156" s="89" t="s">
-        <v>183</v>
-      </c>
-      <c r="C156" s="90"/>
-      <c r="D156" s="90"/>
-      <c r="E156" s="90"/>
+    <row r="156" spans="2:10" s="65" customFormat="1" ht="17">
+      <c r="B156" s="84" t="s">
+        <v>181</v>
+      </c>
+      <c r="C156" s="85"/>
+      <c r="D156" s="85"/>
+      <c r="E156" s="85"/>
     </row>
     <row r="157" spans="2:10">
-      <c r="B157" s="79" t="s">
-        <v>165</v>
-      </c>
-      <c r="C157" s="76" t="s">
-        <v>176</v>
-      </c>
-      <c r="D157" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="E157" s="76" t="s">
-        <v>180</v>
+      <c r="B157" s="75" t="s">
+        <v>163</v>
+      </c>
+      <c r="C157" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="D157" s="72" t="s">
+        <v>178</v>
+      </c>
+      <c r="E157" s="72" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="158" spans="2:10" ht="17">
-      <c r="B158" s="80" t="s">
-        <v>166</v>
-      </c>
-      <c r="C158" s="77" t="s">
-        <v>166</v>
-      </c>
-      <c r="D158" s="77" t="s">
-        <v>166</v>
-      </c>
-      <c r="E158" s="77" t="s">
-        <v>166</v>
+      <c r="B158" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="C158" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="D158" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="E158" s="73" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="159" spans="2:10" ht="17">
-      <c r="B159" s="81" t="s">
-        <v>167</v>
-      </c>
-      <c r="C159" s="78" t="s">
-        <v>167</v>
-      </c>
-      <c r="D159" s="78" t="s">
-        <v>167</v>
-      </c>
-      <c r="E159" s="78" t="s">
-        <v>167</v>
-      </c>
-      <c r="F159" s="75"/>
-      <c r="H159" s="75"/>
+      <c r="B159" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="C159" s="74" t="s">
+        <v>165</v>
+      </c>
+      <c r="D159" s="74" t="s">
+        <v>165</v>
+      </c>
+      <c r="E159" s="74" t="s">
+        <v>165</v>
+      </c>
+      <c r="F159" s="71"/>
+      <c r="H159" s="71"/>
     </row>
     <row r="160" spans="2:10" ht="17">
-      <c r="B160" s="80" t="s">
-        <v>168</v>
-      </c>
-      <c r="C160" s="77" t="s">
-        <v>168</v>
-      </c>
-      <c r="D160" s="77" t="s">
-        <v>168</v>
-      </c>
-      <c r="E160" s="77" t="s">
-        <v>168</v>
-      </c>
-      <c r="F160" s="13"/>
-      <c r="H160" s="13"/>
+      <c r="B160" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="C160" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="D160" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="E160" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="F160" s="11"/>
+      <c r="H160" s="11"/>
     </row>
     <row r="161" spans="2:8" ht="17">
-      <c r="B161" s="81" t="s">
-        <v>169</v>
-      </c>
-      <c r="C161" s="78" t="s">
-        <v>169</v>
-      </c>
-      <c r="D161" s="78" t="s">
-        <v>169</v>
-      </c>
-      <c r="E161" s="78" t="s">
-        <v>169</v>
-      </c>
-      <c r="F161" s="13"/>
-      <c r="H161" s="13"/>
+      <c r="B161" s="77" t="s">
+        <v>167</v>
+      </c>
+      <c r="C161" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="D161" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="E161" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="F161" s="11"/>
+      <c r="H161" s="11"/>
     </row>
     <row r="162" spans="2:8" ht="17">
-      <c r="B162" s="80" t="s">
-        <v>170</v>
-      </c>
-      <c r="C162" s="77" t="s">
-        <v>170</v>
-      </c>
-      <c r="D162" s="77" t="s">
-        <v>170</v>
-      </c>
-      <c r="E162" s="77" t="s">
-        <v>170</v>
-      </c>
-      <c r="F162" s="13"/>
-      <c r="H162" s="13"/>
+      <c r="B162" s="76" t="s">
+        <v>168</v>
+      </c>
+      <c r="C162" s="73" t="s">
+        <v>168</v>
+      </c>
+      <c r="D162" s="73" t="s">
+        <v>168</v>
+      </c>
+      <c r="E162" s="73" t="s">
+        <v>168</v>
+      </c>
+      <c r="F162" s="11"/>
+      <c r="H162" s="11"/>
     </row>
     <row r="163" spans="2:8" ht="17">
-      <c r="B163" s="81" t="s">
-        <v>171</v>
-      </c>
-      <c r="C163" s="78" t="s">
-        <v>177</v>
-      </c>
-      <c r="D163" s="78" t="s">
-        <v>178</v>
-      </c>
-      <c r="E163" s="78" t="s">
-        <v>178</v>
-      </c>
-      <c r="F163" s="13"/>
-      <c r="H163" s="13"/>
+      <c r="B163" s="77" t="s">
+        <v>169</v>
+      </c>
+      <c r="C163" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="D163" s="74" t="s">
+        <v>176</v>
+      </c>
+      <c r="E163" s="74" t="s">
+        <v>176</v>
+      </c>
+      <c r="F163" s="11"/>
+      <c r="H163" s="11"/>
     </row>
     <row r="164" spans="2:8" ht="17">
-      <c r="B164" s="80" t="s">
-        <v>172</v>
-      </c>
-      <c r="C164" s="77" t="s">
-        <v>178</v>
-      </c>
-      <c r="D164" s="77" t="s">
-        <v>172</v>
-      </c>
-      <c r="E164" s="77" t="s">
-        <v>172</v>
-      </c>
-      <c r="F164" s="13"/>
-      <c r="H164" s="13"/>
+      <c r="B164" s="76" t="s">
+        <v>170</v>
+      </c>
+      <c r="C164" s="73" t="s">
+        <v>176</v>
+      </c>
+      <c r="D164" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="E164" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="F164" s="11"/>
+      <c r="H164" s="11"/>
     </row>
     <row r="165" spans="2:8" ht="17">
-      <c r="B165" s="81" t="s">
+      <c r="B165" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="C165" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="C165" s="78" t="s">
-        <v>175</v>
-      </c>
-      <c r="D165" s="78" t="s">
-        <v>181</v>
-      </c>
-      <c r="E165" s="78" t="s">
-        <v>181</v>
-      </c>
-      <c r="F165" s="13"/>
-      <c r="H165" s="13"/>
+      <c r="D165" s="74" t="s">
+        <v>179</v>
+      </c>
+      <c r="E165" s="74" t="s">
+        <v>179</v>
+      </c>
+      <c r="F165" s="11"/>
+      <c r="H165" s="11"/>
     </row>
     <row r="166" spans="2:8" ht="17">
-      <c r="B166" s="80" t="s">
-        <v>174</v>
-      </c>
-      <c r="C166" s="77" t="s">
+      <c r="B166" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="D166" s="77" t="s">
-        <v>182</v>
-      </c>
-      <c r="E166" s="77" t="s">
-        <v>182</v>
-      </c>
-      <c r="F166" s="13"/>
-      <c r="H166" s="13"/>
+      <c r="C166" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="D166" s="73" t="s">
+        <v>180</v>
+      </c>
+      <c r="E166" s="73" t="s">
+        <v>180</v>
+      </c>
+      <c r="F166" s="11"/>
+      <c r="H166" s="11"/>
     </row>
     <row r="167" spans="2:8" ht="17">
-      <c r="B167" s="82" t="s">
-        <v>175</v>
-      </c>
-      <c r="C167" s="83" t="s">
-        <v>179</v>
-      </c>
-      <c r="D167" s="83" t="s">
-        <v>175</v>
-      </c>
-      <c r="E167" s="83" t="s">
-        <v>175</v>
-      </c>
-      <c r="F167" s="13"/>
-      <c r="H167" s="13"/>
+      <c r="B167" s="78" t="s">
+        <v>173</v>
+      </c>
+      <c r="C167" s="79" t="s">
+        <v>177</v>
+      </c>
+      <c r="D167" s="79" t="s">
+        <v>173</v>
+      </c>
+      <c r="E167" s="79" t="s">
+        <v>173</v>
+      </c>
+      <c r="F167" s="11"/>
+      <c r="H167" s="11"/>
     </row>
     <row r="168" spans="2:8" ht="17">
-      <c r="B168" s="13"/>
-      <c r="F168" s="13"/>
-      <c r="H168" s="13"/>
+      <c r="B168" s="11"/>
+      <c r="F168" s="11"/>
+      <c r="H168" s="11"/>
     </row>
     <row r="169" spans="2:8" ht="17">
-      <c r="F169" s="13"/>
-      <c r="H169" s="13"/>
+      <c r="F169" s="11"/>
+      <c r="H169" s="11"/>
     </row>
     <row r="173" spans="2:8">
-      <c r="B173" s="100" t="s">
+      <c r="B173" s="94" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="174" spans="2:8">
-      <c r="B174" s="6" t="s">
+      <c r="B174" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="175" spans="2:8" s="88" customFormat="1">
-      <c r="B175" s="87">
+    <row r="175" spans="2:8" s="83" customFormat="1">
+      <c r="B175" s="82">
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="2:8" s="69" customFormat="1">
-      <c r="B176" s="68"/>
+    <row r="176" spans="2:8" s="65" customFormat="1">
+      <c r="B176" s="64"/>
     </row>
-    <row r="177" spans="2:8" s="69" customFormat="1">
-      <c r="B177" s="68" t="s">
-        <v>150</v>
+    <row r="177" spans="2:8" s="65" customFormat="1">
+      <c r="B177" s="64" t="s">
+        <v>148</v>
       </c>
       <c r="E177"/>
       <c r="F177"/>
@@ -23529,157 +23619,157 @@
       <c r="H177"/>
     </row>
     <row r="178" spans="2:8" ht="48">
-      <c r="B178" s="91" t="s">
-        <v>151</v>
-      </c>
-      <c r="E178" s="69"/>
-      <c r="F178" s="69"/>
-      <c r="G178" s="69"/>
-      <c r="H178" s="69"/>
+      <c r="B178" s="86" t="s">
+        <v>149</v>
+      </c>
+      <c r="E178" s="65"/>
+      <c r="F178" s="65"/>
+      <c r="G178" s="65"/>
+      <c r="H178" s="65"/>
     </row>
     <row r="180" spans="2:8" ht="32">
-      <c r="B180" s="95" t="s">
+      <c r="B180" s="87" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="210" spans="2:2">
-      <c r="B210" s="100" t="s">
+      <c r="B210" s="94" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="211" spans="2:2">
-      <c r="B211" s="6" t="s">
+      <c r="B211" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="212" spans="2:2" s="88" customFormat="1">
-      <c r="B212" s="87">
+    <row r="212" spans="2:2" s="83" customFormat="1">
+      <c r="B212" s="82">
         <v>6</v>
       </c>
     </row>
     <row r="213" spans="2:2" ht="32">
-      <c r="B213" s="92" t="s">
-        <v>161</v>
+      <c r="B213" s="87" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="214" spans="2:2" ht="32">
-      <c r="B214" s="70" t="s">
-        <v>152</v>
+      <c r="B214" s="66" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="230" spans="2:2">
-      <c r="B230" s="100" t="s">
+      <c r="B230" s="94" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="231" spans="2:2">
-      <c r="B231" s="6" t="s">
+      <c r="B231" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="232" spans="2:2" s="88" customFormat="1">
-      <c r="B232" s="87">
+    <row r="232" spans="2:2" s="83" customFormat="1">
+      <c r="B232" s="82">
         <v>7</v>
       </c>
     </row>
     <row r="233" spans="2:2" ht="64">
-      <c r="B233" s="92" t="s">
-        <v>156</v>
+      <c r="B233" s="87" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="279" spans="2:8">
-      <c r="B279" s="100" t="s">
+      <c r="B279" s="94" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="280" spans="2:8">
-      <c r="B280" s="6" t="s">
+      <c r="B280" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="281" spans="2:8" s="88" customFormat="1">
-      <c r="B281" s="87">
+    <row r="281" spans="2:8" s="83" customFormat="1">
+      <c r="B281" s="82">
         <v>8</v>
       </c>
     </row>
     <row r="282" spans="2:8">
       <c r="B282" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="283" spans="2:8" ht="80">
-      <c r="B283" s="65" t="s">
-        <v>153</v>
+      <c r="B283" s="62" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="284" spans="2:8" ht="32">
-      <c r="B284" s="93" t="s">
+      <c r="B284" s="88" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="285" spans="2:8">
-      <c r="B285" s="71"/>
+      <c r="B285" s="67"/>
     </row>
     <row r="286" spans="2:8" ht="48">
-      <c r="B286" s="96" t="s">
-        <v>157</v>
+      <c r="B286" s="90" t="s">
+        <v>155</v>
       </c>
     </row>
-    <row r="288" spans="2:8" s="69" customFormat="1">
+    <row r="288" spans="2:8" s="65" customFormat="1">
       <c r="E288"/>
       <c r="F288"/>
       <c r="G288"/>
       <c r="H288"/>
     </row>
     <row r="289" spans="5:8">
-      <c r="E289" s="69"/>
-      <c r="F289" s="69"/>
-      <c r="G289" s="69"/>
-      <c r="H289" s="69"/>
+      <c r="E289" s="65"/>
+      <c r="F289" s="65"/>
+      <c r="G289" s="65"/>
+      <c r="H289" s="65"/>
     </row>
     <row r="379" spans="2:2">
-      <c r="B379" s="100" t="s">
-        <v>154</v>
+      <c r="B379" s="94" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="380" spans="2:2">
-      <c r="B380" s="6" t="s">
+      <c r="B380" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="381" spans="2:2" s="88" customFormat="1">
-      <c r="B381" s="87">
+    <row r="381" spans="2:2" s="83" customFormat="1">
+      <c r="B381" s="82">
         <v>9</v>
       </c>
     </row>
     <row r="382" spans="2:2" ht="90" customHeight="1">
-      <c r="B382" s="93" t="s">
-        <v>158</v>
+      <c r="B382" s="88" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="384" spans="2:2" ht="48">
-      <c r="B384" s="93" t="s">
+      <c r="B384" s="88" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="414" spans="2:2">
-      <c r="B414" s="100" t="s">
-        <v>155</v>
+      <c r="B414" s="94" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="415" spans="2:2">
-      <c r="B415" s="6" t="s">
+      <c r="B415" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="416" spans="2:2" s="88" customFormat="1">
-      <c r="B416" s="87">
+    <row r="416" spans="2:2" s="83" customFormat="1">
+      <c r="B416" s="82">
         <v>10</v>
       </c>
     </row>
     <row r="417" spans="2:2" ht="64">
-      <c r="B417" s="93" t="s">
-        <v>160</v>
+      <c r="B417" s="88" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -23701,7 +23791,7 @@
   <dimension ref="B1:Q8"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N47" sqref="N47"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -23712,21 +23802,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17">
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="102">
-      <c r="B6" s="99" t="s">
-        <v>188</v>
+      <c r="B6" s="93" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="2:17">
-      <c r="B7" s="65"/>
+      <c r="B7" s="62"/>
     </row>
     <row r="8" spans="2:17" ht="68">
-      <c r="B8" s="98" t="s">
-        <v>187</v>
+      <c r="B8" s="92" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -23753,14 +23843,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:101" ht="21">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:101">
       <c r="A2" t="s">
@@ -24071,7 +24161,7 @@
       <c r="A3">
         <v>0</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>0</v>
       </c>
       <c r="C3">
@@ -24376,7 +24466,7 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>0</v>
       </c>
       <c r="C4">
@@ -24681,7 +24771,7 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>0</v>
       </c>
       <c r="C5">
@@ -24986,7 +25076,7 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>0</v>
       </c>
       <c r="C6">
@@ -25291,7 +25381,7 @@
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>0</v>
       </c>
       <c r="C7">
@@ -25596,7 +25686,7 @@
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>0</v>
       </c>
       <c r="C8">
@@ -25901,7 +25991,7 @@
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>0</v>
       </c>
       <c r="C9">
@@ -26206,7 +26296,7 @@
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>0</v>
       </c>
       <c r="C10">
@@ -26511,7 +26601,7 @@
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>0</v>
       </c>
       <c r="C11">
@@ -26816,7 +26906,7 @@
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="5">
         <v>0</v>
       </c>
       <c r="C12">
@@ -27121,7 +27211,7 @@
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <v>0</v>
       </c>
       <c r="C13">
@@ -27426,7 +27516,7 @@
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="5">
         <v>0</v>
       </c>
       <c r="C14">
@@ -27731,7 +27821,7 @@
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="5">
         <v>0</v>
       </c>
       <c r="C15">
@@ -28036,7 +28126,7 @@
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="5">
         <v>0</v>
       </c>
       <c r="C16">
@@ -28341,7 +28431,7 @@
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="5">
         <v>0</v>
       </c>
       <c r="C17">
@@ -28646,7 +28736,7 @@
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="5">
         <v>0</v>
       </c>
       <c r="C18">
@@ -28951,7 +29041,7 @@
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="5">
         <v>0</v>
       </c>
       <c r="C19">
@@ -29256,7 +29346,7 @@
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="5">
         <v>0</v>
       </c>
       <c r="C20">
@@ -29561,7 +29651,7 @@
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="5">
         <v>0</v>
       </c>
       <c r="C21">
@@ -29866,7 +29956,7 @@
       <c r="A22">
         <v>19</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="5">
         <v>0</v>
       </c>
       <c r="C22">
@@ -30171,7 +30261,7 @@
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="5">
         <v>0</v>
       </c>
       <c r="C23">
@@ -30476,7 +30566,7 @@
       <c r="A24">
         <v>21</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="5">
         <v>0</v>
       </c>
       <c r="C24">
@@ -30781,7 +30871,7 @@
       <c r="A25">
         <v>22</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="5">
         <v>0</v>
       </c>
       <c r="C25">
@@ -31086,7 +31176,7 @@
       <c r="A26">
         <v>23</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="5">
         <v>0</v>
       </c>
       <c r="C26">
@@ -31391,7 +31481,7 @@
       <c r="A27">
         <v>24</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="5">
         <v>0</v>
       </c>
       <c r="C27">
@@ -31696,7 +31786,7 @@
       <c r="A28">
         <v>25</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="5">
         <v>0</v>
       </c>
       <c r="C28">
@@ -32001,7 +32091,7 @@
       <c r="A29">
         <v>26</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="5">
         <v>0</v>
       </c>
       <c r="C29">
@@ -32306,7 +32396,7 @@
       <c r="A30">
         <v>27</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="5">
         <v>0</v>
       </c>
       <c r="C30">
@@ -32611,7 +32701,7 @@
       <c r="A31">
         <v>28</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="5">
         <v>0</v>
       </c>
       <c r="C31">
@@ -32916,7 +33006,7 @@
       <c r="A32">
         <v>29</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="5">
         <v>0</v>
       </c>
       <c r="C32">
@@ -33221,7 +33311,7 @@
       <c r="A33">
         <v>30</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="5">
         <v>0</v>
       </c>
       <c r="C33">
@@ -33523,7 +33613,7 @@
       </c>
     </row>
     <row r="34" spans="1:101">
-      <c r="B34" s="8">
+      <c r="B34" s="6">
         <v>206209</v>
       </c>
       <c r="C34">
